--- a/outputs/schedule_car_0.xlsx
+++ b/outputs/schedule_car_0.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,8 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="34" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,13 +470,18 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Route:</t>
+          <t>Route</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Node Type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>620</v>
+        <v>393</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -488,15 +494,20 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>start of route</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>625</v>
+        <v>398</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
@@ -509,15 +520,20 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>type 1 drop off</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>630</v>
+        <v>403</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
@@ -535,12 +551,17 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>end of route</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>660</v>
+        <v>403</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
@@ -549,23 +570,28 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>start of route</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>664</v>
+        <v>407</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -577,12 +603,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>patient pickup</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>688</v>
+        <v>428</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
@@ -591,151 +622,188 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>3p</t>
+          <t>MCd</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>type 1 pick up</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>3p</t>
+          <t>MCd</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>MCd</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>1</v>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>end of route</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>698</v>
+        <v>861</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MCd</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>start of route</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3p</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>type 2 drop off</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>840</v>
+        <v>895</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>3p</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>type 2 pick up</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>845</v>
+        <v>900</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>5p</t>
+          <t>MCd</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>type 2 drop off</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>875</v>
+        <v>903</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>5p</t>
+          <t>MCd</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>1</v>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>end of route</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>877</v>
+        <v>903</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -744,15 +812,20 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>start of route</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
@@ -761,102 +834,73 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>MCd</t>
+          <t>2p</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>patient drop off</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>925</v>
+        <v>990</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>2p</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>MCd</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
+      <c r="D16" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>type 2 pick up</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>927</v>
+        <v>993</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>MCd</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>2p</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>0</v>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>930</v>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>2p</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>MCd</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>933</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>MCd</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>end of route</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/outputs/schedule_car_0.xlsx
+++ b/outputs/schedule_car_0.xlsx
@@ -444,7 +444,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="34" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -481,7 +481,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>393</v>
+        <v>565</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -490,14 +490,14 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -507,11 +507,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>398</v>
+        <v>570</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -523,17 +523,17 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>type 1 drop off</t>
+          <t>type 2 drop off</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>403</v>
+        <v>575</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>403</v>
+        <v>575</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>407</v>
+        <v>579</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
@@ -596,40 +596,40 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1p</t>
+          <t>4p</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>patient pickup</t>
+          <t>type 1 drop off</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>428</v>
+        <v>624</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>1p</t>
+          <t>4p</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>MCd</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
@@ -639,39 +639,37 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MCd</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
+          <t>1p</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>end of route</t>
+          <t>type 3 drop off</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>861</v>
+        <v>660</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>1p</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -680,20 +678,20 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>start of route</t>
+          <t>type 3 pick up</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>865</v>
+        <v>666</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
@@ -702,134 +700,134 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>3p</t>
+          <t>MCd</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>type 2 drop off</t>
+          <t>type 3 drop off</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>895</v>
+        <v>692</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>3p</t>
+          <t>MCd</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>1</v>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>type 2 pick up</t>
+          <t>end of route</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>900</v>
+        <v>692</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>MCd</t>
+          <t>3p</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>type 2 drop off</t>
+          <t>start of route</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>903</v>
+        <v>696</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MCd</t>
+          <t>3p</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>end of route</t>
+          <t>type 3 pick up</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>4p</t>
+          <t>5p</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>start of route</t>
+          <t>type 3 drop off</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>907</v>
+        <v>1037</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>4p</t>
+          <t>5p</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -838,20 +836,20 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>patient drop off</t>
+          <t>type 2 pick up</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>990</v>
+        <v>1042</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -864,20 +862,20 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>type 2 pick up</t>
+          <t>type 3 pick up</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>993</v>
+        <v>1045</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -895,7 +893,7 @@
         </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
